--- a/Data/Program output/Sample Averages Filtered.xlsx
+++ b/Data/Program output/Sample Averages Filtered.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b08f9f412f899893/Documents/GitHub/dual_deflection/Data/Program output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{07F7887A-6CEB-4158-8F84-D4290863C9F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{07F7887A-6CEB-4158-8F84-D4290863C9F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D449275-9F98-43CC-BF54-CE5EA87E1B98}"/>
   <bookViews>
-    <workbookView xWindow="30630" yWindow="0" windowWidth="26970" windowHeight="23400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="0" windowWidth="28800" windowHeight="23400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -459,7 +459,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J4"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,28 +629,28 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6">
         <v>8</v>
       </c>
       <c r="C6" s="2">
-        <v>70415083.38011992</v>
+        <v>65122301.895282112</v>
       </c>
       <c r="D6" s="2">
-        <v>3827983.429547539</v>
+        <v>35823736.982095897</v>
       </c>
       <c r="E6">
-        <v>5.4363117187308227E-2</v>
+        <v>0.55009936595455644</v>
       </c>
       <c r="F6">
-        <v>10.32701744811839</v>
+        <v>9.1000225485333015</v>
       </c>
       <c r="G6">
-        <v>1.14362991331766</v>
+        <v>0.55845742061118042</v>
       </c>
       <c r="H6">
-        <v>0.11074154944185099</v>
+        <v>6.136879525657768E-2</v>
       </c>
       <c r="I6">
         <v>15</v>
@@ -658,28 +658,28 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7">
         <v>8</v>
       </c>
       <c r="C7" s="2">
-        <v>65122301.895282112</v>
+        <v>70415083.38011992</v>
       </c>
       <c r="D7" s="2">
-        <v>35823736.982095897</v>
+        <v>3827983.429547539</v>
       </c>
       <c r="E7">
-        <v>0.55009936595455644</v>
+        <v>5.4363117187308227E-2</v>
       </c>
       <c r="F7">
-        <v>9.1000225485333015</v>
+        <v>10.32701744811839</v>
       </c>
       <c r="G7">
-        <v>0.55845742061118042</v>
+        <v>1.14362991331766</v>
       </c>
       <c r="H7">
-        <v>6.136879525657768E-2</v>
+        <v>0.11074154944185099</v>
       </c>
       <c r="I7">
         <v>15</v>
@@ -687,28 +687,28 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C8" s="2">
-        <v>166737196.14344811</v>
+        <v>128240160.8956127</v>
       </c>
       <c r="D8" s="2">
-        <v>88529877.954718113</v>
+        <v>7686908.8023407906</v>
       </c>
       <c r="E8">
-        <v>0.53095458003596074</v>
+        <v>5.9941509341975327E-2</v>
       </c>
       <c r="F8">
-        <v>22.68437225045486</v>
+        <v>24.130126535303781</v>
       </c>
       <c r="G8">
-        <v>1.165751087303031</v>
+        <v>1.501931733750699</v>
       </c>
       <c r="H8">
-        <v>5.1390052783129393E-2</v>
+        <v>6.2243011098731107E-2</v>
       </c>
       <c r="I8">
         <v>30</v>
@@ -720,28 +720,28 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9" s="2">
-        <v>1651103778.6977079</v>
+        <v>150850650.06955171</v>
       </c>
       <c r="D9" s="2">
-        <v>79772942.404015392</v>
+        <v>55951163.210728057</v>
       </c>
       <c r="E9">
-        <v>4.8314917228846482E-2</v>
+        <v>0.37090435596353749</v>
       </c>
       <c r="F9">
-        <v>19.456664935064939</v>
+        <v>15.97995825124308</v>
       </c>
       <c r="G9">
-        <v>2.0011411564518138</v>
+        <v>1.7471147076706239</v>
       </c>
       <c r="H9">
-        <v>0.10285119074263049</v>
+        <v>0.1093316190319031</v>
       </c>
       <c r="I9">
         <v>30</v>
@@ -749,28 +749,28 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C10" s="2">
-        <v>128240160.8956127</v>
+        <v>166737196.14344811</v>
       </c>
       <c r="D10" s="2">
-        <v>7686908.8023407906</v>
+        <v>88529877.954718113</v>
       </c>
       <c r="E10">
-        <v>5.9941509341975327E-2</v>
+        <v>0.53095458003596074</v>
       </c>
       <c r="F10">
-        <v>24.130126535303781</v>
+        <v>22.68437225045486</v>
       </c>
       <c r="G10">
-        <v>1.501931733750699</v>
+        <v>1.165751087303031</v>
       </c>
       <c r="H10">
-        <v>6.2243011098731107E-2</v>
+        <v>5.1390052783129393E-2</v>
       </c>
       <c r="I10">
         <v>30</v>
@@ -778,28 +778,28 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" s="2">
-        <v>150850650.06955171</v>
+        <v>1651103778.6977079</v>
       </c>
       <c r="D11" s="2">
-        <v>55951163.210728057</v>
+        <v>79772942.404015392</v>
       </c>
       <c r="E11">
-        <v>0.37090435596353749</v>
+        <v>4.8314917228846482E-2</v>
       </c>
       <c r="F11">
-        <v>15.97995825124308</v>
+        <v>19.456664935064939</v>
       </c>
       <c r="G11">
-        <v>1.7471147076706239</v>
+        <v>2.0011411564518138</v>
       </c>
       <c r="H11">
-        <v>0.1093316190319031</v>
+        <v>0.10285119074263049</v>
       </c>
       <c r="I11">
         <v>30</v>
@@ -831,7 +831,7 @@
   </sheetData>
   <autoFilter ref="A1:I11" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I11">
-      <sortCondition ref="I1:I11"/>
+      <sortCondition ref="C1:C11"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
